--- a/Jogos_do_Dia/2023-05-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI42"/>
+  <dimension ref="A1:AI46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="H2" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="J2" t="n">
         <v>1.03</v>
@@ -663,10 +663,10 @@
         <v>3.8</v>
       </c>
       <c r="N2" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>2.23</v>
       </c>
       <c r="P2" t="n">
         <v>1.33</v>
@@ -726,7 +726,7 @@
         <v>3</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="3">
@@ -757,13 +757,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="H3" t="n">
-        <v>4.33</v>
+        <v>3.95</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="J3" t="n">
         <v>1.07</v>
@@ -778,10 +778,10 @@
         <v>3.2</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="O3" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="P3" t="n">
         <v>1.4</v>
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="G4" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H4" t="n">
         <v>3.2</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.25</v>
-      </c>
       <c r="I4" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="J4" t="n">
         <v>1.05</v>
@@ -893,10 +893,10 @@
         <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
         <v>1.44</v>
@@ -944,7 +944,7 @@
         <v>1.82</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF4" t="n">
         <v>1.42</v>
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="H5" t="n">
-        <v>3.19</v>
+        <v>3.56</v>
       </c>
       <c r="I5" t="n">
-        <v>4.94</v>
+        <v>5.3</v>
       </c>
       <c r="J5" t="n">
         <v>1.05</v>
@@ -1008,10 +1008,10 @@
         <v>2.8</v>
       </c>
       <c r="N5" t="n">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
         <v>1.5</v>
@@ -1077,7 +1077,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1089,80 +1089,80 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Spartak Subotica</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>El Daklyeh FC</t>
+          <t>Mladost Lučani</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.53</v>
       </c>
       <c r="I6" t="n">
-        <v>4.7</v>
+        <v>3.63</v>
       </c>
       <c r="J6" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.19</v>
+        <v>1.99</v>
       </c>
       <c r="O6" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="P6" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.51</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1.46</v>
+        <v>1.25</v>
       </c>
       <c r="X6" t="n">
-        <v>1.08</v>
+        <v>0.71</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.21</v>
+        <v>0.91</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.82</v>
+        <v>2.54</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
@@ -1208,76 +1208,76 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Radnički Niš</t>
+          <t>Radnik Surdulica</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Javor Ivanjica</t>
+          <t>Mladost Novi Sad</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="W7" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X7" t="n">
         <v>0.88</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.61</v>
+        <v>1.26</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.86</v>
+        <v>2.48</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -1323,76 +1323,76 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Radnik Surdulica</t>
+          <t>Radnički Niš</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mladost Novi Sad</t>
+          <t>Javor Ivanjica</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="W8" t="n">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="X8" t="n">
         <v>0.88</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.26</v>
+        <v>1.61</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.48</v>
+        <v>2.86</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
@@ -1422,7 +1422,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1434,80 +1434,80 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Spartak Subotica</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mladost Lučani</t>
+          <t>El Daklyeh FC</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="W9" t="n">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="X9" t="n">
-        <v>0.71</v>
+        <v>1.08</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.91</v>
+        <v>1.21</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.54</v>
+        <v>2.82</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Denmark Superliga</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1549,110 +1549,110 @@
         </is>
       </c>
       <c r="D10" t="n">
+        <v>32</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Warta Poznań</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K10" t="n">
         <v>7</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Randers</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Viborg</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K10" t="n">
-        <v>10.5</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="M10" t="n">
-        <v>3.35</v>
+        <v>2.8</v>
       </c>
       <c r="N10" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="O10" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="P10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T10" t="n">
         <v>1.4</v>
       </c>
-      <c r="Q10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.58</v>
-      </c>
       <c r="U10" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="V10" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X10" t="n">
         <v>1.47</v>
       </c>
-      <c r="W10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.43</v>
-      </c>
       <c r="Y10" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.15</v>
+        <v>3.09</v>
       </c>
       <c r="AB10" t="n">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>2.54</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.46</v>
+        <v>1.59</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="AH10" t="n">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="AI10" t="n">
-        <v>3.04</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Denmark Superliga</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1664,110 +1664,110 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Randers</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S11" t="n">
         <v>2</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K11" t="n">
-        <v>7</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P11" t="n">
+      <c r="T11" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.4</v>
-      </c>
       <c r="X11" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="Y11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z11" t="n">
         <v>1.53</v>
       </c>
-      <c r="Z11" t="n">
-        <v>1.56</v>
-      </c>
       <c r="AA11" t="n">
-        <v>3.09</v>
+        <v>3.15</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.54</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.59</v>
+        <v>1.46</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="AH11" t="n">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="AI11" t="n">
-        <v>3.34</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Germany 3. Liga</t>
+          <t>Sweden Superettan</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -1779,104 +1779,104 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Erzgebirge Aue</t>
+          <t>GIF Sundsvall</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Borussia Dortmund II</t>
+          <t>Helsingborg</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.06</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
-        <v>3.13</v>
+        <v>3.32</v>
       </c>
       <c r="I12" t="n">
-        <v>2.73</v>
+        <v>2.85</v>
       </c>
       <c r="J12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L12" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N12" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.7</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.57</v>
-      </c>
       <c r="S12" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="T12" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="U12" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="V12" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="W12" t="n">
-        <v>1.35</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.64</v>
+        <v>1.17</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.44</v>
+        <v>0.99</v>
       </c>
       <c r="AA12" t="n">
-        <v>3.08</v>
+        <v>2.16</v>
       </c>
       <c r="AB12" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AH12" t="n">
         <v>2.23</v>
       </c>
-      <c r="AC12" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>1.85</v>
-      </c>
       <c r="AI12" t="n">
-        <v>2.32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1898,28 +1898,28 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>GIF Sundsvall</t>
+          <t>Trelleborg</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Helsingborg</t>
+          <t>Östersunds FK</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.28</v>
       </c>
       <c r="I13" t="n">
-        <v>2.85</v>
+        <v>3.03</v>
       </c>
       <c r="J13" t="n">
         <v>1.05</v>
       </c>
       <c r="K13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L13" t="n">
         <v>1.29</v>
@@ -1928,76 +1928,76 @@
         <v>3.4</v>
       </c>
       <c r="N13" t="n">
-        <v>1.83</v>
+        <v>2.03</v>
       </c>
       <c r="O13" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="P13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="U13" t="n">
         <v>1.25</v>
       </c>
       <c r="V13" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="W13" t="n">
         <v>1</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.99</v>
+        <v>1.21</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.16</v>
+        <v>2.78</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD13" t="n">
         <v>2.43</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.74</v>
+        <v>1.92</v>
       </c>
       <c r="AH13" t="n">
-        <v>2.23</v>
+        <v>2.55</v>
       </c>
       <c r="AI13" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sweden Superettan</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -2009,110 +2009,110 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Trelleborg</t>
+          <t>UD Oliveirense</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Östersunds FK</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>2.56</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.08</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="J14" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N14" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R14" t="n">
         <v>1.83</v>
       </c>
-      <c r="P14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.67</v>
-      </c>
       <c r="S14" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="T14" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="U14" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="V14" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="X14" t="n">
-        <v>2.33</v>
+        <v>1.13</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="AA14" t="n">
-        <v>2.78</v>
+        <v>2.99</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.82</v>
+        <v>1.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="AD14" t="n">
-        <v>2.43</v>
+        <v>2.7</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="AH14" t="n">
-        <v>2.55</v>
+        <v>2.19</v>
       </c>
       <c r="AI14" t="n">
-        <v>3.5</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Germany 3. Liga</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -2124,104 +2124,104 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>UD Oliveirense</t>
+          <t>Erzgebirge Aue</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Borussia Dortmund II</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>2.32</v>
       </c>
       <c r="H15" t="n">
-        <v>2.96</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.55</v>
+        <v>2.71</v>
       </c>
       <c r="J15" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K15" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L15" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="M15" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>2.05</v>
+        <v>1.63</v>
       </c>
       <c r="O15" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="P15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Z15" t="n">
         <v>1.44</v>
       </c>
-      <c r="Q15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1.31</v>
-      </c>
       <c r="AA15" t="n">
-        <v>2.99</v>
+        <v>3.08</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.6</v>
+        <v>2.23</v>
       </c>
       <c r="AC15" t="n">
-        <v>5.75</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.7</v>
+        <v>1.82</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.51</v>
+        <v>1.27</v>
       </c>
       <c r="AG15" t="n">
-        <v>1.98</v>
+        <v>1.49</v>
       </c>
       <c r="AH15" t="n">
-        <v>2.19</v>
+        <v>1.85</v>
       </c>
       <c r="AI15" t="n">
-        <v>2.98</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="16">
@@ -2252,13 +2252,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.38</v>
       </c>
       <c r="I16" t="n">
-        <v>3.7</v>
+        <v>3.82</v>
       </c>
       <c r="J16" t="n">
         <v>1.07</v>
@@ -2273,10 +2273,10 @@
         <v>3.05</v>
       </c>
       <c r="N16" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="O16" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="P16" t="n">
         <v>1.47</v>
@@ -2324,7 +2324,7 @@
         <v>2.95</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AF16" t="n">
         <v>1.19</v>
@@ -2367,13 +2367,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="H17" t="n">
-        <v>5.2</v>
+        <v>6.15</v>
       </c>
       <c r="I17" t="n">
-        <v>11.4</v>
+        <v>13</v>
       </c>
       <c r="J17" t="n">
         <v>1.01</v>
@@ -2388,10 +2388,10 @@
         <v>4.5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="O17" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="P17" t="n">
         <v>1.3</v>
@@ -2485,10 +2485,10 @@
         <v>2.1</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J18" t="n">
         <v>1.06</v>
@@ -2503,10 +2503,10 @@
         <v>2.95</v>
       </c>
       <c r="N18" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O18" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="P18" t="n">
         <v>1.48</v>
@@ -2572,7 +2572,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -2584,110 +2584,110 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Unión Santa Fe</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Sarmiento</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.13</v>
+        <v>2.63</v>
       </c>
       <c r="H19" t="n">
-        <v>3.26</v>
+        <v>2.8</v>
       </c>
       <c r="I19" t="n">
-        <v>3.73</v>
+        <v>2.75</v>
       </c>
       <c r="J19" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="K19" t="n">
-        <v>6.5</v>
+        <v>6.95</v>
       </c>
       <c r="L19" t="n">
         <v>1.44</v>
       </c>
       <c r="M19" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="N19" t="n">
         <v>2.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="P19" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S19" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T19" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="U19" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="V19" t="n">
-        <v>1.71</v>
+        <v>1.37</v>
       </c>
       <c r="W19" t="n">
-        <v>0.83</v>
+        <v>1.08</v>
       </c>
       <c r="X19" t="n">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.54</v>
+        <v>1.14</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.77</v>
+        <v>2.61</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>3.84</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
@@ -2699,104 +2699,104 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Unión Santa Fe</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Racing Córdoba</t>
+          <t>Sarmiento</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.16</v>
+        <v>2.13</v>
       </c>
       <c r="H20" t="n">
-        <v>3.05</v>
+        <v>3.26</v>
       </c>
       <c r="I20" t="n">
-        <v>3.05</v>
+        <v>3.73</v>
       </c>
       <c r="J20" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="K20" t="n">
-        <v>7.65</v>
+        <v>6.5</v>
       </c>
       <c r="L20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Y20" t="n">
         <v>1.54</v>
       </c>
-      <c r="M20" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.56</v>
-      </c>
       <c r="Z20" t="n">
-        <v>1.41</v>
+        <v>1.23</v>
       </c>
       <c r="AA20" t="n">
-        <v>2.97</v>
+        <v>2.77</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.67</v>
+        <v>1.34</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.1</v>
+        <v>10</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.66</v>
+        <v>3.84</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.52</v>
+        <v>1.23</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.86</v>
+        <v>1.42</v>
       </c>
       <c r="AH20" t="n">
-        <v>2.31</v>
+        <v>1.73</v>
       </c>
       <c r="AI20" t="n">
-        <v>3.18</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="21">
@@ -2917,7 +2917,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -2929,110 +2929,110 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Racing Córdoba</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.64</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.54</v>
+        <v>3.6</v>
       </c>
       <c r="J22" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="K22" t="n">
-        <v>6.95</v>
+        <v>7.65</v>
       </c>
       <c r="L22" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="M22" t="n">
-        <v>2.65</v>
+        <v>2.33</v>
       </c>
       <c r="N22" t="n">
-        <v>2.24</v>
+        <v>2.25</v>
       </c>
       <c r="O22" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="P22" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="R22" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S22" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="T22" t="n">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="U22" t="n">
         <v>1.32</v>
       </c>
       <c r="V22" t="n">
-        <v>1.37</v>
+        <v>1.72</v>
       </c>
       <c r="W22" t="n">
-        <v>1.08</v>
+        <v>1.83</v>
       </c>
       <c r="X22" t="n">
-        <v>1.31</v>
+        <v>0.71</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.14</v>
+        <v>1.56</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="AA22" t="n">
-        <v>2.61</v>
+        <v>2.97</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Republic of Ireland Premier Division</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
@@ -3044,110 +3044,110 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dundalk</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.7</v>
+        <v>3.22</v>
       </c>
       <c r="H23" t="n">
-        <v>3.55</v>
+        <v>3.58</v>
       </c>
       <c r="I23" t="n">
-        <v>4.45</v>
+        <v>2.34</v>
       </c>
       <c r="J23" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K23" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L23" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M23" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N23" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="O23" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="P23" t="n">
         <v>1.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="R23" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="S23" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T23" t="n">
-        <v>1.18</v>
+        <v>1.67</v>
       </c>
       <c r="U23" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>1.37</v>
       </c>
       <c r="W23" t="n">
-        <v>1.14</v>
+        <v>0.47</v>
       </c>
       <c r="X23" t="n">
-        <v>1.57</v>
+        <v>0.76</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.85</v>
+        <v>1.09</v>
       </c>
       <c r="Z23" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AE23" t="n">
         <v>1.24</v>
       </c>
-      <c r="AA23" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1.2</v>
-      </c>
       <c r="AF23" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="AG23" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="AH23" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="AI23" t="n">
-        <v>2.79</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>France Ligue 2</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -3163,106 +3163,106 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.2</v>
+        <v>3.38</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K24" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="L24" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y24" t="n">
         <v>1.32</v>
       </c>
-      <c r="M24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="Z24" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AG24" t="n">
         <v>2.75</v>
       </c>
-      <c r="R24" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>1.78</v>
-      </c>
       <c r="AH24" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="AI24" t="n">
-        <v>2.85</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>France Ligue 2</t>
+          <t>Republic of Ireland Premier Division</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
@@ -3274,110 +3274,110 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.5</v>
+        <v>1.58</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>3.69</v>
       </c>
       <c r="I25" t="n">
-        <v>2.1</v>
+        <v>4.55</v>
       </c>
       <c r="J25" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K25" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="M25" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="N25" t="n">
-        <v>2.48</v>
+        <v>2.04</v>
       </c>
       <c r="O25" t="n">
-        <v>1.42</v>
+        <v>1.84</v>
       </c>
       <c r="P25" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="R25" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S25" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="T25" t="n">
-        <v>1.75</v>
+        <v>1.18</v>
       </c>
       <c r="U25" t="n">
         <v>1.28</v>
       </c>
       <c r="V25" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="W25" t="n">
-        <v>1.47</v>
+        <v>1.14</v>
       </c>
       <c r="X25" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="Y25" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AB25" t="n">
         <v>1.32</v>
       </c>
-      <c r="Z25" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>2.7</v>
-      </c>
       <c r="AC25" t="n">
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>1.6</v>
+        <v>4.28</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
       <c r="AF25" t="n">
-        <v>2.02</v>
+        <v>1.4</v>
       </c>
       <c r="AG25" t="n">
-        <v>2.75</v>
+        <v>1.76</v>
       </c>
       <c r="AH25" t="n">
-        <v>3.9</v>
+        <v>2.16</v>
       </c>
       <c r="AI25" t="n">
-        <v>5.1</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Bolivia LFPB</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -3389,110 +3389,110 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Levante UD</t>
+          <t>Club Always Ready</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Guabirá</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="H26" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K26" t="n">
+        <v>16</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="V26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AC26" t="n">
         <v>8.5</v>
       </c>
-      <c r="L26" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="V26" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>10</v>
-      </c>
       <c r="AD26" t="n">
-        <v>5.15</v>
+        <v>5.45</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AG26" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AH26" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AI26" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Republic of Ireland Premier Division</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -3504,104 +3504,104 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>St Patrick's Athl.</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="I27" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="J27" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K27" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M27" t="n">
         <v>3.25</v>
       </c>
       <c r="N27" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="O27" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="P27" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="R27" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S27" t="n">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="T27" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U27" t="n">
         <v>1.24</v>
       </c>
-      <c r="U27" t="n">
-        <v>1.31</v>
-      </c>
       <c r="V27" t="n">
-        <v>1.82</v>
+        <v>2.25</v>
       </c>
       <c r="W27" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="X27" t="n">
-        <v>1.06</v>
+        <v>1.43</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.48</v>
+        <v>1.98</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AA27" t="n">
-        <v>2.85</v>
+        <v>3.45</v>
       </c>
       <c r="AB27" t="n">
-        <v>1.84</v>
+        <v>1.34</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>2.25</v>
+        <v>4.02</v>
       </c>
       <c r="AE27" t="n">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.63</v>
+        <v>1.36</v>
       </c>
       <c r="AG27" t="n">
-        <v>2.04</v>
+        <v>1.69</v>
       </c>
       <c r="AH27" t="n">
-        <v>2.63</v>
+        <v>2.07</v>
       </c>
       <c r="AI27" t="n">
-        <v>3.5</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="28">
@@ -3632,13 +3632,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="H28" t="n">
-        <v>4.35</v>
+        <v>4.7</v>
       </c>
       <c r="I28" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="J28" t="n">
         <v>1.01</v>
@@ -3653,10 +3653,10 @@
         <v>5.8</v>
       </c>
       <c r="N28" t="n">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="O28" t="n">
-        <v>2.26</v>
+        <v>2.8</v>
       </c>
       <c r="P28" t="n">
         <v>1.25</v>
@@ -3722,7 +3722,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Republic of Ireland Premier Division</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
@@ -3734,110 +3734,110 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>St Patrick's Athl.</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.54</v>
+        <v>2.12</v>
       </c>
       <c r="H29" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>5.45</v>
+        <v>3.96</v>
       </c>
       <c r="J29" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K29" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="L29" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M29" t="n">
         <v>3.25</v>
       </c>
       <c r="N29" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O29" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="P29" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="R29" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S29" t="n">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="T29" t="n">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="U29" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="V29" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD29" t="n">
         <v>2.25</v>
       </c>
-      <c r="W29" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="X29" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>4.02</v>
-      </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.36</v>
+        <v>1.63</v>
       </c>
       <c r="AG29" t="n">
-        <v>1.69</v>
+        <v>2.04</v>
       </c>
       <c r="AH29" t="n">
-        <v>2.07</v>
+        <v>2.63</v>
       </c>
       <c r="AI29" t="n">
-        <v>2.72</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bolivia LFPB</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
@@ -3849,104 +3849,104 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Club Always Ready</t>
+          <t>Levante UD</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Guabirá</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="H30" t="n">
-        <v>3.88</v>
+        <v>5.1</v>
       </c>
       <c r="I30" t="n">
-        <v>4.84</v>
+        <v>9.9</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K30" t="n">
-        <v>16</v>
+        <v>8.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.15</v>
+        <v>1.28</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="O30" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="P30" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="R30" t="n">
-        <v>1.97</v>
+        <v>2.2</v>
       </c>
       <c r="S30" t="n">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="T30" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="U30" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="V30" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="W30" t="n">
-        <v>1.2</v>
+        <v>1.89</v>
       </c>
       <c r="X30" t="n">
-        <v>0.8</v>
+        <v>0.53</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.15</v>
+        <v>1.67</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.02</v>
+        <v>1.16</v>
       </c>
       <c r="AA30" t="n">
-        <v>3.17</v>
+        <v>2.83</v>
       </c>
       <c r="AB30" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD30" t="n">
-        <v>5.45</v>
+        <v>5.15</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="31">
@@ -3977,13 +3977,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>2.7</v>
+        <v>2.71</v>
       </c>
       <c r="J31" t="n">
         <v>1.08</v>
@@ -3998,10 +3998,10 @@
         <v>2.9</v>
       </c>
       <c r="N31" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O31" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="P31" t="n">
         <v>1.44</v>
@@ -4092,13 +4092,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.25</v>
+        <v>2.47</v>
       </c>
       <c r="H32" t="n">
-        <v>2.76</v>
+        <v>2.99</v>
       </c>
       <c r="I32" t="n">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="J32" t="n">
         <v>1.06</v>
@@ -4113,10 +4113,10 @@
         <v>2.43</v>
       </c>
       <c r="N32" t="n">
-        <v>2.53</v>
+        <v>2.19</v>
       </c>
       <c r="O32" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="P32" t="n">
         <v>1.51</v>
@@ -4207,13 +4207,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="H33" t="n">
-        <v>4.15</v>
+        <v>4.28</v>
       </c>
       <c r="I33" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="J33" t="n">
         <v>1.04</v>
@@ -4228,7 +4228,7 @@
         <v>4.7</v>
       </c>
       <c r="N33" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="O33" t="n">
         <v>1.9</v>
@@ -4279,19 +4279,19 @@
         <v>7</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AH33" t="n">
         <v>1.98</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="34">
@@ -4412,7 +4412,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Uruguay Primera División</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
@@ -4424,110 +4424,110 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Club Atlético Güemes</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Racing</t>
+          <t>San Martín Tucumán</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H35" t="n">
         <v>2.75</v>
       </c>
-      <c r="H35" t="n">
-        <v>2.95</v>
-      </c>
       <c r="I35" t="n">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
       <c r="J35" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="K35" t="n">
-        <v>8.25</v>
+        <v>6.3</v>
       </c>
       <c r="L35" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="M35" t="n">
-        <v>2.65</v>
+        <v>2.2</v>
       </c>
       <c r="N35" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R35" t="n">
         <v>2.4</v>
       </c>
-      <c r="O35" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P35" t="n">
+      <c r="S35" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AE35" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q35" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="X35" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>1.33</v>
-      </c>
       <c r="AF35" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="AG35" t="n">
-        <v>2.07</v>
+        <v>2.31</v>
       </c>
       <c r="AH35" t="n">
-        <v>2.71</v>
+        <v>3.2</v>
       </c>
       <c r="AI35" t="n">
-        <v>3.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Tunisia Ligue 1</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
@@ -4539,101 +4539,101 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Club Atlético Güemes</t>
+          <t>CS Sfaxien</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>San Martín Tucumán</t>
+          <t>Monastir</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>2.87</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="X36" t="n">
-        <v>0.57</v>
+        <v>1.8</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.3</v>
+        <v>1.51</v>
       </c>
       <c r="Z36" t="n">
         <v>1.12</v>
       </c>
       <c r="AA36" t="n">
-        <v>2.42</v>
+        <v>2.63</v>
       </c>
       <c r="AB36" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AG36" t="n">
-        <v>2.31</v>
+        <v>0</v>
       </c>
       <c r="AH36" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AI36" t="n">
         <v>0</v>
@@ -4667,13 +4667,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I37" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J37" t="n">
         <v>1.05</v>
@@ -4688,10 +4688,10 @@
         <v>3.4</v>
       </c>
       <c r="N37" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="O37" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="P37" t="n">
         <v>1.4</v>
@@ -4757,7 +4757,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Tunisia Ligue 1</t>
+          <t>Uruguay Primera División</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
@@ -4769,110 +4769,110 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>CS Sfaxien</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Monastir</t>
+          <t>Racing</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="W38" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="X38" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.51</v>
+        <v>2.23</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>2.63</v>
+        <v>2.23</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Brazil Serie C</t>
+          <t>Chile Primera B</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
@@ -4884,80 +4884,80 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Operário PR</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>EC São José</t>
+          <t>Univ. Concepción</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="H39" t="n">
-        <v>3.28</v>
+        <v>3.42</v>
       </c>
       <c r="I39" t="n">
-        <v>4.74</v>
+        <v>4.64</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="N39" t="n">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="O39" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="W39" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>2.25</v>
+        <v>1.99</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AA39" t="n">
-        <v>3.49</v>
+        <v>3.46</v>
       </c>
       <c r="AB39" t="n">
         <v>0</v>
@@ -4987,7 +4987,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Chile Primera B</t>
+          <t>Brazil Serie C</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
@@ -4999,80 +4999,80 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>Operário PR</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Univ. Concepción</t>
+          <t>EC São José</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="H40" t="n">
-        <v>2.99</v>
+        <v>3.64</v>
       </c>
       <c r="I40" t="n">
-        <v>4.35</v>
+        <v>5.15</v>
       </c>
       <c r="J40" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>2.3</v>
+        <v>2.03</v>
       </c>
       <c r="O40" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="P40" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.99</v>
+        <v>2.25</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AA40" t="n">
-        <v>3.46</v>
+        <v>3.49</v>
       </c>
       <c r="AB40" t="n">
         <v>0</v>
@@ -5242,10 +5242,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H42" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
@@ -5263,10 +5263,10 @@
         <v>3.1</v>
       </c>
       <c r="N42" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O42" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="P42" t="n">
         <v>1.4</v>
@@ -5314,18 +5314,478 @@
         <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AI42" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>21:10:00</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>14</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Estudiantes Caseros</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Chaco For Ever</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>16</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>San Martín San Juan</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Guillermo Brown</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K44" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>14</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K45" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Alianza Lima</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Deportivo Municipal</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="I46" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K46" t="n">
+        <v>13</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="V46" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W46" t="n">
+        <v>3</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI46" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-05-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI46"/>
+  <dimension ref="A1:AI45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>7.6</v>
+        <v>7.45</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="I2" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="J2" t="n">
         <v>1.03</v>
@@ -666,7 +666,7 @@
         <v>1.63</v>
       </c>
       <c r="O2" t="n">
-        <v>2.23</v>
+        <v>1.91</v>
       </c>
       <c r="P2" t="n">
         <v>1.33</v>
@@ -690,10 +690,10 @@
         <v>1.08</v>
       </c>
       <c r="W2" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="Y2" t="n">
         <v>1.09</v>
@@ -757,13 +757,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="H3" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="I3" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="J3" t="n">
         <v>1.07</v>
@@ -778,10 +778,10 @@
         <v>3.2</v>
       </c>
       <c r="N3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="O3" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="P3" t="n">
         <v>1.4</v>
@@ -805,10 +805,10 @@
         <v>2.65</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="X3" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="Y3" t="n">
         <v>1.43</v>
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I4" t="n">
-        <v>2.27</v>
+        <v>2.16</v>
       </c>
       <c r="J4" t="n">
         <v>1.05</v>
@@ -893,10 +893,10 @@
         <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>2.15</v>
+        <v>1.84</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="P4" t="n">
         <v>1.44</v>
@@ -920,10 +920,10 @@
         <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="X4" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="Y4" t="n">
         <v>1.14</v>
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.56</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>5.3</v>
+        <v>6.5</v>
       </c>
       <c r="J5" t="n">
         <v>1.05</v>
@@ -1008,10 +1008,10 @@
         <v>2.8</v>
       </c>
       <c r="N5" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="P5" t="n">
         <v>1.5</v>
@@ -1035,10 +1035,10 @@
         <v>1.93</v>
       </c>
       <c r="W5" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="X5" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="Y5" t="n">
         <v>1.6</v>
@@ -1050,28 +1050,28 @@
         <v>3.08</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="6">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="H6" t="n">
-        <v>3.53</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.63</v>
+        <v>4.6</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="O6" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="X6" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="Y6" t="n">
         <v>1.63</v>
@@ -1208,106 +1208,106 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Radnik Surdulica</t>
+          <t>Radnički Niš</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mladost Novi Sad</t>
+          <t>Javor Ivanjica</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.17</v>
+        <v>1.57</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.19</v>
+        <v>5.75</v>
       </c>
       <c r="J7" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K7" t="n">
-        <v>7.25</v>
+        <v>6.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="N7" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="P7" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="R7" t="n">
         <v>1.95</v>
       </c>
       <c r="S7" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="T7" t="n">
-        <v>1.27</v>
+        <v>1.05</v>
       </c>
       <c r="U7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE7" t="n">
         <v>1.29</v>
       </c>
-      <c r="V7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1319,101 +1319,101 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Radnički Niš</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Javor Ivanjica</t>
+          <t>El Daklyeh FC</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
-        <v>3.86</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K8" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
-        <v>3.2</v>
+        <v>2.64</v>
       </c>
       <c r="N8" t="n">
-        <v>2.03</v>
+        <v>2.3</v>
       </c>
       <c r="O8" t="n">
         <v>1.57</v>
       </c>
       <c r="P8" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.65</v>
+        <v>2.51</v>
       </c>
       <c r="R8" t="n">
-        <v>1.95</v>
+        <v>2.11</v>
       </c>
       <c r="S8" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="T8" t="n">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="U8" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="V8" t="n">
-        <v>2.3</v>
+        <v>2.04</v>
       </c>
       <c r="W8" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.43</v>
       </c>
       <c r="X8" t="n">
-        <v>0.88</v>
+        <v>1.07</v>
       </c>
       <c r="Y8" t="n">
         <v>1.61</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
@@ -1422,7 +1422,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1434,104 +1434,104 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Radnik Surdulica</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>El Daklyeh FC</t>
+          <t>Mladost Novi Sad</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="J9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K9" t="n">
-        <v>7.2</v>
+        <v>7.25</v>
       </c>
       <c r="L9" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M9" t="n">
-        <v>2.64</v>
+        <v>2.45</v>
       </c>
       <c r="N9" t="n">
-        <v>2.25</v>
+        <v>2.44</v>
       </c>
       <c r="O9" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.57</v>
       </c>
-      <c r="P9" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.04</v>
-      </c>
       <c r="W9" t="n">
-        <v>1.46</v>
+        <v>1.24</v>
       </c>
       <c r="X9" t="n">
-        <v>1.08</v>
+        <v>0.89</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.61</v>
+        <v>1.26</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.82</v>
+        <v>2.48</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="10">
@@ -1562,13 +1562,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.09</v>
+        <v>2.45</v>
       </c>
       <c r="H10" t="n">
-        <v>3.48</v>
+        <v>3.13</v>
       </c>
       <c r="I10" t="n">
-        <v>3.46</v>
+        <v>2.9</v>
       </c>
       <c r="J10" t="n">
         <v>1.08</v>
@@ -1583,10 +1583,10 @@
         <v>2.8</v>
       </c>
       <c r="N10" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="P10" t="n">
         <v>1.5</v>
@@ -1610,10 +1610,10 @@
         <v>1.55</v>
       </c>
       <c r="W10" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="X10" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="Y10" t="n">
         <v>1.53</v>
@@ -1652,7 +1652,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Denmark Superliga</t>
+          <t>Germany 3. Liga</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1664,110 +1664,110 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Randers</t>
+          <t>Erzgebirge Aue</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>Borussia Dortmund II</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.81</v>
+        <v>2.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.46</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="J11" t="n">
         <v>1.04</v>
       </c>
       <c r="K11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="L11" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="M11" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="N11" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="O11" t="n">
-        <v>1.79</v>
+        <v>2.2</v>
       </c>
       <c r="P11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.4</v>
       </c>
-      <c r="Q11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.47</v>
-      </c>
       <c r="W11" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="X11" t="n">
-        <v>1.43</v>
+        <v>1.06</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AA11" t="n">
-        <v>3.15</v>
+        <v>3.08</v>
       </c>
       <c r="AB11" t="n">
-        <v>2.1</v>
+        <v>2.23</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.82</v>
+        <v>1.49</v>
       </c>
       <c r="AH11" t="n">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="AI11" t="n">
-        <v>3.04</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sweden Superettan</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -1779,104 +1779,104 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>GIF Sundsvall</t>
+          <t>UD Oliveirense</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Helsingborg</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.32</v>
+        <v>3.13</v>
       </c>
       <c r="I12" t="n">
-        <v>2.85</v>
+        <v>3.13</v>
       </c>
       <c r="J12" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K12" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M12" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N12" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="P12" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R12" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="S12" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="T12" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="U12" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="V12" t="n">
         <v>1.52</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.17</v>
+        <v>1.68</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.99</v>
+        <v>1.31</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.16</v>
+        <v>2.99</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.43</v>
+        <v>2.7</v>
       </c>
       <c r="AE12" t="n">
         <v>1.22</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.74</v>
+        <v>1.98</v>
       </c>
       <c r="AH12" t="n">
-        <v>2.23</v>
+        <v>2.19</v>
       </c>
       <c r="AI12" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="13">
@@ -1907,13 +1907,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.28</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>3.03</v>
+        <v>2.55</v>
       </c>
       <c r="J13" t="n">
         <v>1.05</v>
@@ -1928,10 +1928,10 @@
         <v>3.4</v>
       </c>
       <c r="N13" t="n">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="O13" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P13" t="n">
         <v>1.36</v>
@@ -1955,10 +1955,10 @@
         <v>1.57</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="X13" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="Y13" t="n">
         <v>1.57</v>
@@ -1997,7 +1997,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Sweden Superettan</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -2009,110 +2009,110 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>UD Oliveirense</t>
+          <t>GIF Sundsvall</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Helsingborg</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.08</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="J14" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K14" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="L14" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N14" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="O14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R14" t="n">
         <v>1.7</v>
       </c>
-      <c r="P14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.83</v>
-      </c>
       <c r="S14" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="T14" t="n">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="U14" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="V14" t="n">
         <v>1.52</v>
       </c>
       <c r="W14" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="X14" t="n">
-        <v>1.13</v>
+        <v>0.25</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.68</v>
+        <v>1.17</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.31</v>
+        <v>0.99</v>
       </c>
       <c r="AA14" t="n">
-        <v>2.99</v>
+        <v>2.16</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="AE14" t="n">
         <v>1.22</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.98</v>
+        <v>1.74</v>
       </c>
       <c r="AH14" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="AI14" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Germany 3. Liga</t>
+          <t>Denmark Superliga</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -2124,104 +2124,104 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Erzgebirge Aue</t>
+          <t>Randers</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Borussia Dortmund II</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.32</v>
+        <v>2.75</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="J15" t="n">
         <v>1.04</v>
       </c>
       <c r="K15" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="N15" t="n">
-        <v>1.63</v>
+        <v>1.85</v>
       </c>
       <c r="O15" t="n">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="P15" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="R15" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AH15" t="n">
         <v>2.3</v>
       </c>
-      <c r="T15" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>1.85</v>
-      </c>
       <c r="AI15" t="n">
-        <v>2.32</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="16">
@@ -2252,13 +2252,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="H16" t="n">
-        <v>3.38</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>3.82</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
         <v>1.07</v>
@@ -2273,10 +2273,10 @@
         <v>3.05</v>
       </c>
       <c r="N16" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P16" t="n">
         <v>1.47</v>
@@ -2300,10 +2300,10 @@
         <v>1.82</v>
       </c>
       <c r="W16" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="X16" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="Y16" t="n">
         <v>1.48</v>
@@ -2367,10 +2367,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="H17" t="n">
-        <v>6.15</v>
+        <v>5.75</v>
       </c>
       <c r="I17" t="n">
         <v>13</v>
@@ -2415,10 +2415,10 @@
         <v>4.4</v>
       </c>
       <c r="W17" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="X17" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="Y17" t="n">
         <v>2.32</v>
@@ -2430,28 +2430,28 @@
         <v>3.68</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -2482,13 +2482,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="J18" t="n">
         <v>1.06</v>
@@ -2503,10 +2503,10 @@
         <v>2.95</v>
       </c>
       <c r="N18" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="P18" t="n">
         <v>1.48</v>
@@ -2530,10 +2530,10 @@
         <v>1.6</v>
       </c>
       <c r="W18" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="X18" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2597,13 +2597,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="H19" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="J19" t="n">
         <v>1.05</v>
@@ -2618,10 +2618,10 @@
         <v>2.65</v>
       </c>
       <c r="N19" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="O19" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P19" t="n">
         <v>1.51</v>
@@ -2660,28 +2660,28 @@
         <v>2.61</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="20">
@@ -2760,10 +2760,10 @@
         <v>1.71</v>
       </c>
       <c r="W20" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="X20" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="Y20" t="n">
         <v>1.54</v>
@@ -2802,7 +2802,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -2814,110 +2814,110 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Central Córdoba SdE</t>
+          <t>Racing Córdoba</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.63</v>
+        <v>2.13</v>
       </c>
       <c r="H21" t="n">
-        <v>3.19</v>
+        <v>3.15</v>
       </c>
       <c r="I21" t="n">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="J21" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="K21" t="n">
-        <v>7</v>
+        <v>7.65</v>
       </c>
       <c r="L21" t="n">
-        <v>1.4</v>
+        <v>1.54</v>
       </c>
       <c r="M21" t="n">
-        <v>2.7</v>
+        <v>2.33</v>
       </c>
       <c r="N21" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="P21" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="R21" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="T21" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Z21" t="n">
         <v>1.41</v>
       </c>
-      <c r="U21" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X21" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1.12</v>
-      </c>
       <c r="AA21" t="n">
-        <v>2.1</v>
+        <v>2.97</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="AC21" t="n">
         <v>9.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>2.27</v>
+        <v>2.66</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AG21" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="AH21" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AI21" t="n">
-        <v>3.04</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -2929,110 +2929,110 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Racing Córdoba</t>
+          <t>Central Córdoba SdE</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="I22" t="n">
-        <v>3.6</v>
+        <v>2.85</v>
       </c>
       <c r="J22" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="K22" t="n">
-        <v>7.65</v>
+        <v>7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.54</v>
+        <v>1.4</v>
       </c>
       <c r="M22" t="n">
-        <v>2.33</v>
+        <v>2.7</v>
       </c>
       <c r="N22" t="n">
         <v>2.25</v>
       </c>
       <c r="O22" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="P22" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="R22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AA22" t="n">
         <v>2.1</v>
       </c>
-      <c r="S22" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>2.97</v>
-      </c>
       <c r="AB22" t="n">
-        <v>1.67</v>
+        <v>1.87</v>
       </c>
       <c r="AC22" t="n">
         <v>9.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>2.66</v>
+        <v>2.27</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AG22" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="AH22" t="n">
-        <v>2.31</v>
+        <v>2.27</v>
       </c>
       <c r="AI22" t="n">
-        <v>3.18</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>France Ligue 2</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
@@ -3048,106 +3048,106 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.22</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
-        <v>3.58</v>
+        <v>3.13</v>
       </c>
       <c r="I23" t="n">
-        <v>2.34</v>
+        <v>2.05</v>
       </c>
       <c r="J23" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K23" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="L23" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y23" t="n">
         <v>1.32</v>
       </c>
-      <c r="M23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="Z23" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AG23" t="n">
         <v>2.75</v>
       </c>
-      <c r="R23" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>1.78</v>
-      </c>
       <c r="AH23" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="AI23" t="n">
-        <v>2.85</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>France Ligue 2</t>
+          <t>Republic of Ireland Premier Division</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -3159,110 +3159,110 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.38</v>
+        <v>1.6</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="I24" t="n">
-        <v>2.3</v>
+        <v>5.1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="L24" t="n">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="M24" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="N24" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="O24" t="n">
-        <v>1.58</v>
+        <v>1.84</v>
       </c>
       <c r="P24" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="R24" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S24" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="T24" t="n">
-        <v>1.75</v>
+        <v>1.18</v>
       </c>
       <c r="U24" t="n">
         <v>1.28</v>
       </c>
       <c r="V24" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="W24" t="n">
-        <v>1.47</v>
+        <v>1.14</v>
       </c>
       <c r="X24" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="Y24" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AB24" t="n">
         <v>1.32</v>
       </c>
-      <c r="Z24" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>2.7</v>
-      </c>
       <c r="AC24" t="n">
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>1.6</v>
+        <v>4.28</v>
       </c>
       <c r="AE24" t="n">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
       <c r="AF24" t="n">
-        <v>2.02</v>
+        <v>1.4</v>
       </c>
       <c r="AG24" t="n">
-        <v>2.75</v>
+        <v>1.76</v>
       </c>
       <c r="AH24" t="n">
-        <v>3.9</v>
+        <v>2.16</v>
       </c>
       <c r="AI24" t="n">
-        <v>5.1</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Republic of Ireland Premier Division</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
@@ -3274,110 +3274,110 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dundalk</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.58</v>
+        <v>3.4</v>
       </c>
       <c r="H25" t="n">
-        <v>3.69</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>4.55</v>
+        <v>2.2</v>
       </c>
       <c r="J25" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K25" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L25" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M25" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N25" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="O25" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="P25" t="n">
         <v>1.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="R25" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="S25" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T25" t="n">
-        <v>1.18</v>
+        <v>1.67</v>
       </c>
       <c r="U25" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
+        <v>1.37</v>
       </c>
       <c r="W25" t="n">
-        <v>1.14</v>
+        <v>0.47</v>
       </c>
       <c r="X25" t="n">
-        <v>1.57</v>
+        <v>0.76</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.85</v>
+        <v>1.09</v>
       </c>
       <c r="Z25" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AE25" t="n">
         <v>1.24</v>
       </c>
-      <c r="AA25" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1.2</v>
-      </c>
       <c r="AF25" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="AG25" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="AH25" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="AI25" t="n">
-        <v>2.79</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bolivia LFPB</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -3389,110 +3389,110 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Club Always Ready</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Guabirá</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.36</v>
+        <v>1.93</v>
       </c>
       <c r="H26" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>4.1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="K26" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L26" t="n">
-        <v>1.15</v>
+        <v>1.35</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="N26" t="n">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="O26" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="P26" t="n">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.8</v>
+        <v>2.63</v>
       </c>
       <c r="R26" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="S26" t="n">
-        <v>1.76</v>
+        <v>1.91</v>
       </c>
       <c r="T26" t="n">
-        <v>1.05</v>
+        <v>1.24</v>
       </c>
       <c r="U26" t="n">
-        <v>1.11</v>
+        <v>1.31</v>
       </c>
       <c r="V26" t="n">
-        <v>3.25</v>
+        <v>1.82</v>
       </c>
       <c r="W26" t="n">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="X26" t="n">
-        <v>0.8</v>
+        <v>1.06</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.15</v>
+        <v>1.48</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.02</v>
+        <v>1.37</v>
       </c>
       <c r="AA26" t="n">
-        <v>3.17</v>
+        <v>2.85</v>
       </c>
       <c r="AB26" t="n">
-        <v>1.31</v>
+        <v>1.84</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>5.45</v>
+        <v>2.25</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="AG26" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AH26" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Republic of Ireland Premier Division</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -3504,110 +3504,110 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Leicester City</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>St Patrick's Athl.</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K27" t="n">
+        <v>22</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R27" t="n">
         <v>1.57</v>
       </c>
-      <c r="H27" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M27" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="P27" t="n">
+      <c r="S27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Y27" t="n">
         <v>1.41</v>
       </c>
-      <c r="Q27" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="X27" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>1.98</v>
-      </c>
       <c r="Z27" t="n">
-        <v>1.47</v>
+        <v>1.66</v>
       </c>
       <c r="AA27" t="n">
-        <v>3.45</v>
+        <v>3.07</v>
       </c>
       <c r="AB27" t="n">
-        <v>1.34</v>
+        <v>3.1</v>
       </c>
       <c r="AC27" t="n">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>4.02</v>
+        <v>1.49</v>
       </c>
       <c r="AE27" t="n">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AG27" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="AH27" t="n">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="AI27" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Republic of Ireland Premier Division</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
@@ -3619,110 +3619,110 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Leicester City</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>St Patrick's Athl.</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.1</v>
+        <v>1.55</v>
       </c>
       <c r="H28" t="n">
-        <v>4.7</v>
+        <v>4.05</v>
       </c>
       <c r="I28" t="n">
-        <v>1.58</v>
+        <v>5.3</v>
       </c>
       <c r="J28" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="K28" t="n">
-        <v>22</v>
+        <v>7.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="M28" t="n">
-        <v>5.8</v>
+        <v>3.25</v>
       </c>
       <c r="N28" t="n">
-        <v>1.46</v>
+        <v>1.93</v>
       </c>
       <c r="O28" t="n">
-        <v>2.8</v>
+        <v>1.97</v>
       </c>
       <c r="P28" t="n">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.75</v>
+        <v>2.65</v>
       </c>
       <c r="R28" t="n">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="S28" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="V28" t="n">
         <v>2.25</v>
       </c>
-      <c r="T28" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AE28" t="n">
         <v>1.19</v>
       </c>
-      <c r="W28" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="X28" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1.26</v>
-      </c>
       <c r="AF28" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="AG28" t="n">
-        <v>1.84</v>
+        <v>1.69</v>
       </c>
       <c r="AH28" t="n">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="AI28" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Bolivia LFPB</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
@@ -3734,104 +3734,104 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Club Always Ready</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Guabirá</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.12</v>
+        <v>1.36</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="I29" t="n">
-        <v>3.96</v>
+        <v>6.2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="K29" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L29" t="n">
-        <v>1.35</v>
+        <v>1.15</v>
       </c>
       <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="V29" t="n">
         <v>3.25</v>
       </c>
-      <c r="N29" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="U29" t="n">
+      <c r="W29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AB29" t="n">
         <v>1.31</v>
       </c>
-      <c r="V29" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X29" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>1.84</v>
-      </c>
       <c r="AC29" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>2.25</v>
+        <v>5.45</v>
       </c>
       <c r="AE29" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AG29" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="AH29" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="AI29" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="30">
@@ -3862,13 +3862,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="H30" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="I30" t="n">
-        <v>9.9</v>
+        <v>11.5</v>
       </c>
       <c r="J30" t="n">
         <v>1.04</v>
@@ -3883,10 +3883,10 @@
         <v>3.5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="O30" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="P30" t="n">
         <v>1.36</v>
@@ -3977,13 +3977,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.69</v>
+        <v>2.45</v>
       </c>
       <c r="H31" t="n">
         <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>2.71</v>
+        <v>2.9</v>
       </c>
       <c r="J31" t="n">
         <v>1.08</v>
@@ -3998,10 +3998,10 @@
         <v>2.9</v>
       </c>
       <c r="N31" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O31" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="P31" t="n">
         <v>1.44</v>
@@ -4092,13 +4092,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.47</v>
+        <v>2.16</v>
       </c>
       <c r="H32" t="n">
-        <v>2.99</v>
+        <v>3.05</v>
       </c>
       <c r="I32" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="J32" t="n">
         <v>1.06</v>
@@ -4113,10 +4113,10 @@
         <v>2.43</v>
       </c>
       <c r="N32" t="n">
-        <v>2.19</v>
+        <v>2.25</v>
       </c>
       <c r="O32" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="P32" t="n">
         <v>1.51</v>
@@ -4164,19 +4164,19 @@
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -4210,10 +4210,10 @@
         <v>1.48</v>
       </c>
       <c r="H33" t="n">
-        <v>4.28</v>
+        <v>4.1</v>
       </c>
       <c r="I33" t="n">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="J33" t="n">
         <v>1.04</v>
@@ -4228,10 +4228,10 @@
         <v>4.7</v>
       </c>
       <c r="N33" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="O33" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="P33" t="n">
         <v>1.22</v>
@@ -4437,13 +4437,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H35" t="n">
-        <v>2.75</v>
+        <v>2.83</v>
       </c>
       <c r="I35" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J35" t="n">
         <v>1.12</v>
@@ -4452,16 +4452,16 @@
         <v>6.3</v>
       </c>
       <c r="L35" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="M35" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N35" t="n">
-        <v>2.77</v>
+        <v>2.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P35" t="n">
         <v>1.68</v>
@@ -4521,13 +4521,13 @@
         <v>3.2</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Tunisia Ligue 1</t>
+          <t>Chile Primera División</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
@@ -4539,110 +4539,110 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>CS Sfaxien</t>
+          <t>Universidad Chile</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Monastir</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="W36" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="X36" t="n">
-        <v>1.8</v>
+        <v>0.67</v>
       </c>
       <c r="Y36" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AE36" t="n">
         <v>1.51</v>
       </c>
-      <c r="Z36" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0</v>
-      </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Chile Primera División</t>
+          <t>Uruguay Primera División</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
@@ -4654,110 +4654,110 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Universidad Chile</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Racing</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="H37" t="n">
-        <v>3.45</v>
+        <v>2.95</v>
       </c>
       <c r="I37" t="n">
-        <v>3.1</v>
+        <v>2.49</v>
       </c>
       <c r="J37" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K37" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="L37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U37" t="n">
         <v>1.3</v>
       </c>
-      <c r="M37" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N37" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.28</v>
-      </c>
       <c r="V37" t="n">
-        <v>1.87</v>
+        <v>1.36</v>
       </c>
       <c r="W37" t="n">
-        <v>1.6</v>
+        <v>1.17</v>
       </c>
       <c r="X37" t="n">
-        <v>0.67</v>
+        <v>1.67</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.81</v>
+        <v>2.23</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>3.3</v>
+        <v>2.23</v>
       </c>
       <c r="AB37" t="n">
-        <v>1.82</v>
+        <v>1.97</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD37" t="n">
-        <v>2.42</v>
+        <v>2.09</v>
       </c>
       <c r="AE37" t="n">
-        <v>1.51</v>
+        <v>1.33</v>
       </c>
       <c r="AF37" t="n">
-        <v>1.9</v>
+        <v>1.68</v>
       </c>
       <c r="AG37" t="n">
-        <v>2.52</v>
+        <v>2.07</v>
       </c>
       <c r="AH37" t="n">
-        <v>3.5</v>
+        <v>2.71</v>
       </c>
       <c r="AI37" t="n">
-        <v>3.8</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Uruguay Primera División</t>
+          <t>Chile Primera B</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
@@ -4765,114 +4765,114 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Racing</t>
+          <t>Univ. Concepción</t>
         </is>
       </c>
       <c r="G38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K38" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M38" t="n">
         <v>2.75</v>
       </c>
-      <c r="H38" t="n">
-        <v>3</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K38" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M38" t="n">
-        <v>2.65</v>
-      </c>
       <c r="N38" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O38" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="P38" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="Q38" t="n">
         <v>2.5</v>
       </c>
       <c r="R38" t="n">
-        <v>1.91</v>
+        <v>2.16</v>
       </c>
       <c r="S38" t="n">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="T38" t="n">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="U38" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="V38" t="n">
-        <v>1.36</v>
+        <v>1.95</v>
       </c>
       <c r="W38" t="n">
-        <v>1.17</v>
+        <v>2.2</v>
       </c>
       <c r="X38" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.23</v>
+        <v>1.99</v>
       </c>
       <c r="Z38" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AB38" t="n">
         <v>0</v>
       </c>
-      <c r="AA38" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>1.97</v>
-      </c>
       <c r="AC38" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>2.09</v>
+        <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AF38" t="n">
-        <v>1.68</v>
+        <v>1.27</v>
       </c>
       <c r="AG38" t="n">
-        <v>2.07</v>
+        <v>1.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>2.71</v>
+        <v>1.85</v>
       </c>
       <c r="AI38" t="n">
-        <v>3.74</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Chile Primera B</t>
+          <t>Brazil Serie C</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
@@ -4884,80 +4884,80 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>Operário PR</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Univ. Concepción</t>
+          <t>EC São José</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.75</v>
+        <v>1.54</v>
       </c>
       <c r="H39" t="n">
-        <v>3.42</v>
+        <v>3.75</v>
       </c>
       <c r="I39" t="n">
-        <v>4.64</v>
+        <v>5.4</v>
       </c>
       <c r="J39" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="O39" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P39" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.99</v>
+        <v>2.25</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AA39" t="n">
-        <v>3.46</v>
+        <v>3.49</v>
       </c>
       <c r="AB39" t="n">
         <v>0</v>
@@ -4987,7 +4987,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Brazil Serie C</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
@@ -4995,114 +4995,114 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Operário PR</t>
+          <t>Vélez Sarsfield</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>EC São José</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.64</v>
+        <v>2.16</v>
       </c>
       <c r="H40" t="n">
-        <v>3.64</v>
+        <v>3.1</v>
       </c>
       <c r="I40" t="n">
-        <v>5.15</v>
+        <v>3.3</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N40" t="n">
-        <v>2.03</v>
+        <v>2.35</v>
       </c>
       <c r="O40" t="n">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="W40" t="n">
-        <v>3</v>
+        <v>1.38</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.25</v>
+        <v>1.26</v>
       </c>
       <c r="Z40" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AE40" t="n">
         <v>1.24</v>
       </c>
-      <c r="AA40" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>0</v>
-      </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Ecuador Primera Categoría Serie A</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
@@ -5110,114 +5110,114 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Vélez Sarsfield</t>
+          <t>Técnico Universitario</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Cumbayá</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.16</v>
+        <v>1.76</v>
       </c>
       <c r="H41" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K41" t="n">
+        <v>12</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M41" t="n">
         <v>3.1</v>
       </c>
-      <c r="I41" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K41" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M41" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N41" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="O41" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AB41" t="n">
         <v>1.52</v>
       </c>
-      <c r="P41" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R41" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>1.77</v>
-      </c>
       <c r="AC41" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD41" t="n">
-        <v>2.44</v>
+        <v>3.02</v>
       </c>
       <c r="AE41" t="n">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="AF41" t="n">
-        <v>1.47</v>
+        <v>1.8</v>
       </c>
       <c r="AG41" t="n">
-        <v>1.83</v>
+        <v>2.95</v>
       </c>
       <c r="AH41" t="n">
-        <v>2.34</v>
+        <v>4.25</v>
       </c>
       <c r="AI41" t="n">
-        <v>3.08</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Ecuador Primera Categoría Serie A</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
@@ -5225,108 +5225,108 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:10:00</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Técnico Universitario</t>
+          <t>Estudiantes Caseros</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Cumbayá</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AB42" t="n">
         <v>1.75</v>
       </c>
-      <c r="H42" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K42" t="n">
-        <v>12</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M42" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AE42" t="n">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AF42" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AG42" t="n">
-        <v>2.95</v>
+        <v>1.98</v>
       </c>
       <c r="AH42" t="n">
-        <v>4.25</v>
+        <v>2.49</v>
       </c>
       <c r="AI42" t="n">
-        <v>4.8</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="43">
@@ -5340,105 +5340,105 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>21:10:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Estudiantes Caseros</t>
+          <t>San Martín San Juan</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.32</v>
+        <v>1.81</v>
       </c>
       <c r="H43" t="n">
-        <v>3.08</v>
+        <v>3.15</v>
       </c>
       <c r="I43" t="n">
-        <v>3.34</v>
+        <v>4.4</v>
       </c>
       <c r="J43" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K43" t="n">
-        <v>7.05</v>
+        <v>7.4</v>
       </c>
       <c r="L43" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M43" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N43" t="n">
-        <v>2.24</v>
+        <v>2.37</v>
       </c>
       <c r="O43" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="P43" t="n">
         <v>1.58</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.35</v>
+        <v>2.24</v>
       </c>
       <c r="R43" t="n">
         <v>2.3</v>
       </c>
       <c r="S43" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="T43" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="U43" t="n">
         <v>1.28</v>
       </c>
       <c r="V43" t="n">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="W43" t="n">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="Z43" t="n">
-        <v>1.23</v>
+        <v>1.11</v>
       </c>
       <c r="AA43" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>1.6</v>
+        <v>1.84</v>
       </c>
       <c r="AG43" t="n">
-        <v>1.98</v>
+        <v>2.31</v>
       </c>
       <c r="AH43" t="n">
-        <v>2.49</v>
+        <v>3.2</v>
       </c>
       <c r="AI43" t="n">
         <v>0</v>
@@ -5447,7 +5447,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Chile Primera División</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
@@ -5459,110 +5459,110 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>San Martín San Juan</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.75</v>
+        <v>2.42</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I44" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="J44" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="K44" t="n">
-        <v>7.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L44" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T44" t="n">
         <v>1.44</v>
       </c>
-      <c r="M44" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="N44" t="n">
+      <c r="U44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH44" t="n">
         <v>2.37</v>
       </c>
-      <c r="O44" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R44" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W44" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="X44" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>0</v>
-      </c>
       <c r="AI44" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Chile Primera División</t>
+          <t>Peru Primera División</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
@@ -5570,223 +5570,108 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>Alianza Lima</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Deportivo Municipal</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.36</v>
+        <v>1.38</v>
       </c>
       <c r="H45" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="I45" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K45" t="n">
+        <v>13</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="V45" t="n">
         <v>3.15</v>
       </c>
-      <c r="I45" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K45" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M45" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N45" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S45" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V45" t="n">
-        <v>1.54</v>
-      </c>
       <c r="W45" t="n">
-        <v>0.83</v>
+        <v>3</v>
       </c>
       <c r="X45" t="n">
-        <v>0.83</v>
+        <v>1.33</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.71</v>
+        <v>1.07</v>
       </c>
       <c r="AA45" t="n">
-        <v>3.33</v>
+        <v>2.67</v>
       </c>
       <c r="AB45" t="n">
-        <v>1.95</v>
+        <v>1.2</v>
       </c>
       <c r="AC45" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AD45" t="n">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="AE45" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AF45" t="n">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="AG45" t="n">
         <v>1.83</v>
       </c>
       <c r="AH45" t="n">
-        <v>2.37</v>
+        <v>2</v>
       </c>
       <c r="AI45" t="n">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Peru Primera División</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>2</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Alianza Lima</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Deportivo Municipal</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="H46" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="I46" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K46" t="n">
-        <v>13</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M46" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="N46" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R46" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="T46" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="V46" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="W46" t="n">
-        <v>3</v>
-      </c>
-      <c r="X46" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
     </row>
   </sheetData>
